--- a/Gangbuk/dongdaemoongu.xlsx
+++ b/Gangbuk/dongdaemoongu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\Desktop\강북지역\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataAnalysis\Paper_pycharm\Gangbuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9148709B-9CF3-4C37-85BE-7E6AB3661257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88F12F-0B23-4182-B5DE-169748EF9674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2010" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="답십리동" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1530,7 +1530,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -10135,7 +10135,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{A6D0248E-AC69-477C-A4AF-7EA72B4761EF}">
-    <sortState ref="A2:P76">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P76">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
   </autoFilter>
@@ -10369,6 +10369,9 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -12220,9 +12223,12 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -14384,6 +14390,9 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
